--- a/resources/wheels/161 - Климович.xlsx
+++ b/resources/wheels/161 - Климович.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -687,16 +687,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -909,9 +909,9 @@
       <c r="F16" s="23">
         <v>0</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>7.4</v>
+        <v>15.434999999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -965,7 +965,9 @@
       <c r="E20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="23" t="n">
+        <v>1.681</v>
+      </c>
       <c r="G20" s="23"/>
       <c r="H20" s="5"/>
     </row>
@@ -977,7 +979,9 @@
       <c r="E21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="23" t="n">
+        <v>2.155</v>
+      </c>
       <c r="G21" s="23"/>
       <c r="H21" s="5"/>
     </row>
@@ -989,7 +993,9 @@
       <c r="E22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="23" t="n">
+        <v>4.199</v>
+      </c>
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
     </row>
@@ -1565,16 +1571,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1787,9 +1793,9 @@
       <c r="F16" s="23">
         <v>0</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>7.4</v>
+        <v>15.434999999999999</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1843,7 +1849,9 @@
       <c r="E20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="23" t="n">
+        <v>1.681</v>
+      </c>
       <c r="G20" s="23"/>
       <c r="H20" s="5"/>
     </row>
@@ -1855,7 +1863,9 @@
       <c r="E21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="23" t="n">
+        <v>2.155</v>
+      </c>
       <c r="G21" s="23"/>
       <c r="H21" s="5"/>
     </row>
@@ -1867,7 +1877,9 @@
       <c r="E22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="23" t="n">
+        <v>4.199</v>
+      </c>
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
     </row>
@@ -2443,16 +2455,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2671,9 +2683,9 @@
       <c r="F16" s="23">
         <v>17.600000000000001</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>33.5</v>
+        <v>41.535</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2783,7 +2795,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>1.681</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -2795,7 +2809,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.155</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -2807,7 +2823,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>4.199</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -3347,16 +3365,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3575,9 +3593,9 @@
       <c r="F16" s="23">
         <v>17.600000000000001</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>33.5</v>
+        <v>41.535</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3687,7 +3705,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>1.681</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -3699,7 +3719,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.155</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -3711,7 +3733,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>4.199</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -4251,16 +4275,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4473,9 +4497,9 @@
       <c r="F16" s="23">
         <v>51.2</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>67.100000000000009</v>
+        <v>75.135</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4585,7 +4609,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>1.681</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -4597,7 +4623,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.155</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -4609,7 +4637,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>4.199</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -5149,16 +5179,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5371,9 +5401,9 @@
       <c r="F16" s="23">
         <v>51.2</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>67.100000000000009</v>
+        <v>75.135</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5483,7 +5513,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>1.681</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -5495,7 +5527,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.155</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -5507,7 +5541,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>4.199</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -6050,16 +6086,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6272,9 +6308,9 @@
       <c r="F16" s="23">
         <v>120</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>135.9</v>
+        <v>143.93500000000003</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6384,7 +6420,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>1.681</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -6396,7 +6434,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>2.155</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -6408,7 +6448,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>4.199</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>

--- a/resources/wheels/161 - Климович.xlsx
+++ b/resources/wheels/161 - Климович.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="56">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -157,6 +157,42 @@
   </si>
   <si>
     <t>AB 5978-7</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -681,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -911,7 +947,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>15.434999999999999</v>
+        <v>18.281</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -965,7 +1001,7 @@
       <c r="E20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="23">
         <v>1.681</v>
       </c>
       <c r="G20" s="23"/>
@@ -979,8 +1015,8 @@
       <c r="E21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="23" t="n">
-        <v>2.155</v>
+      <c r="F21" s="23">
+        <v>2.1549999999999998</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="5"/>
@@ -993,8 +1029,8 @@
       <c r="E22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="23" t="n">
-        <v>4.199</v>
+      <c r="F22" s="23">
+        <v>4.1989999999999998</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
@@ -1007,7 +1043,9 @@
       <c r="E23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="23"/>
+      <c r="F23" s="23">
+        <v>2.528</v>
+      </c>
       <c r="G23" s="23"/>
       <c r="H23" s="5"/>
     </row>
@@ -1019,7 +1057,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>0</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -1031,7 +1071,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -1040,7 +1082,12 @@
       <c r="B26" s="5"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="F26" s="23"/>
+      <c r="E26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="23" t="n">
+        <v>0.318</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -1049,6 +1096,9 @@
       <c r="B27" s="5"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
+      <c r="E27" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
@@ -1058,6 +1108,9 @@
       <c r="B28" s="5"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
+      <c r="E28" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
@@ -1067,6 +1120,9 @@
       <c r="B29" s="5"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
+      <c r="E29" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
@@ -1076,7 +1132,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -1086,7 +1144,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -1096,7 +1156,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -1106,7 +1168,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -1116,7 +1180,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -1126,7 +1192,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -1136,7 +1204,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -1146,7 +1216,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -1566,7 +1638,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E26" sqref="E26:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1867,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>15.434999999999999</v>
+        <v>18.281</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1849,7 +1921,7 @@
       <c r="E20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="23">
         <v>1.681</v>
       </c>
       <c r="G20" s="23"/>
@@ -1863,8 +1935,8 @@
       <c r="E21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="23" t="n">
-        <v>2.155</v>
+      <c r="F21" s="23">
+        <v>2.1549999999999998</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="5"/>
@@ -1877,8 +1949,8 @@
       <c r="E22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="23" t="n">
-        <v>4.199</v>
+      <c r="F22" s="23">
+        <v>4.1989999999999998</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
@@ -1891,7 +1963,9 @@
       <c r="E23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="23"/>
+      <c r="F23" s="23">
+        <v>2.528</v>
+      </c>
       <c r="G23" s="23"/>
       <c r="H23" s="5"/>
     </row>
@@ -1903,7 +1977,9 @@
       <c r="E24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23">
+        <v>0</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -1915,7 +1991,9 @@
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -1924,7 +2002,12 @@
       <c r="B26" s="5"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="F26" s="23"/>
+      <c r="E26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="23" t="n">
+        <v>0.318</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -1933,6 +2016,9 @@
       <c r="B27" s="5"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
+      <c r="E27" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
@@ -1942,6 +2028,9 @@
       <c r="B28" s="5"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
+      <c r="E28" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
@@ -1951,6 +2040,9 @@
       <c r="B29" s="5"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
+      <c r="E29" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
@@ -1960,7 +2052,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -1970,7 +2064,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -1980,7 +2076,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -1990,7 +2088,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -2000,7 +2100,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -2010,7 +2112,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -2020,7 +2124,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -2030,7 +2136,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -2450,7 +2558,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E26" sqref="E26:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2685,7 +2793,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>41.535</v>
+        <v>40.181999999999995</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2795,7 +2903,7 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>1.681</v>
       </c>
       <c r="G24" s="23"/>
@@ -2809,8 +2917,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>2.155</v>
+      <c r="F25" s="23">
+        <v>2.1549999999999998</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -2821,10 +2929,10 @@
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="14" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F26" s="23" t="n">
-        <v>4.199</v>
+        <v>0.318</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -2835,9 +2943,11 @@
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="23"/>
+        <v>45</v>
+      </c>
+      <c r="F27" s="23">
+        <v>2.528</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -2847,9 +2957,11 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -2859,7 +2971,7 @@
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -2870,7 +2982,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -2880,7 +2994,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -2890,7 +3006,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -2900,7 +3018,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -2910,7 +3030,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -2920,7 +3042,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -2930,7 +3054,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -2940,7 +3066,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -3360,7 +3488,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E26" sqref="E26:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3595,7 +3723,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>41.535</v>
+        <v>40.181999999999995</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3705,7 +3833,7 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>1.681</v>
       </c>
       <c r="G24" s="23"/>
@@ -3719,8 +3847,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>2.155</v>
+      <c r="F25" s="23">
+        <v>2.1549999999999998</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -3731,10 +3859,10 @@
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="14" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F26" s="23" t="n">
-        <v>4.199</v>
+        <v>0.318</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -3745,9 +3873,11 @@
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="23"/>
+        <v>45</v>
+      </c>
+      <c r="F27" s="23">
+        <v>2.528</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -3757,9 +3887,11 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -3769,7 +3901,7 @@
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -3780,7 +3912,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -3790,7 +3924,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3800,7 +3936,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3810,7 +3948,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -3820,7 +3960,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -3830,7 +3972,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -3840,7 +3984,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -3850,7 +3996,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -4270,7 +4418,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E26" sqref="E26:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4499,7 +4647,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>75.135</v>
+        <v>73.78200000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4609,7 +4757,7 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>1.681</v>
       </c>
       <c r="G24" s="23"/>
@@ -4623,8 +4771,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>2.155</v>
+      <c r="F25" s="23">
+        <v>2.1549999999999998</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -4635,10 +4783,10 @@
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="14" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F26" s="23" t="n">
-        <v>4.199</v>
+        <v>0.318</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -4649,9 +4797,11 @@
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="23"/>
+        <v>45</v>
+      </c>
+      <c r="F27" s="23">
+        <v>2.528</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -4661,9 +4811,11 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -4673,7 +4825,7 @@
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -4684,7 +4836,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -4694,7 +4848,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -4704,7 +4860,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -4714,7 +4872,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -4724,7 +4884,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -4734,7 +4896,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -4744,7 +4908,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -4754,7 +4920,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -5174,7 +5342,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E26" sqref="E26:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5403,7 +5571,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>75.135</v>
+        <v>73.78200000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5513,7 +5681,7 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>1.681</v>
       </c>
       <c r="G24" s="23"/>
@@ -5527,8 +5695,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>2.155</v>
+      <c r="F25" s="23">
+        <v>2.1549999999999998</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -5539,10 +5707,10 @@
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="14" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F26" s="23" t="n">
-        <v>4.199</v>
+        <v>0.318</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -5553,9 +5721,11 @@
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="23"/>
+        <v>45</v>
+      </c>
+      <c r="F27" s="23">
+        <v>2.528</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -5565,9 +5735,11 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -5577,7 +5749,7 @@
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -5588,7 +5760,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -5598,7 +5772,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -5608,7 +5784,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -5618,7 +5796,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -5628,7 +5808,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -5638,7 +5820,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -5648,7 +5832,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -5658,7 +5844,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -6081,7 +6269,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E26" sqref="E26:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6310,7 +6498,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>143.93500000000003</v>
+        <v>142.58200000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6420,7 +6608,7 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="23">
         <v>1.681</v>
       </c>
       <c r="G24" s="23"/>
@@ -6434,8 +6622,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>2.155</v>
+      <c r="F25" s="23">
+        <v>2.1549999999999998</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -6446,10 +6634,10 @@
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="14" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F26" s="23" t="n">
-        <v>4.199</v>
+        <v>0.318</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -6460,9 +6648,11 @@
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="23"/>
+        <v>45</v>
+      </c>
+      <c r="F27" s="23">
+        <v>2.528</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -6472,9 +6662,11 @@
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -6484,7 +6676,7 @@
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -6495,7 +6687,9 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -6505,7 +6699,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -6515,7 +6711,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -6525,7 +6723,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -6535,7 +6735,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -6545,7 +6747,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -6555,7 +6759,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -6565,7 +6771,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
